--- a/biology/Médecine/Medicine_Man/Medicine_Man.xlsx
+++ b/biology/Médecine/Medicine_Man/Medicine_Man.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Medicine Man est un film américain réalisé par John McTiernan, sorti en 1992.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Rae Crane est envoyée par la fondation d'une société pharmaceutique dans la forêt amazonienne. Elle a pour mission de retrouver le professeur Robert Campbell, qui n'avait plus donné signe de vie depuis trois ans mais qui a recontacté la fondation pour des besoins en matériel. Le docteur Crane rencontre alors ce curieux scientifique, installé dans un village. Campbell prétend pouvoir guérir le cancer grâce à une substance contenue dans des arbres de la forêt. Mais la construction d'une route au cœur de la forêt va mettre en péril les projets de Campbell.
 </t>
@@ -542,11 +556,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Medicine Man
-Titre de travail : The Stand[1]
+Titre de travail : The Stand
 Réalisation : John McTiernan
 Scénario : Tom Schulman et Sally Robinson, d'après une histoire de Tom Schulman
 Direction artistique : John Krenz Reinhart Jr.
@@ -562,10 +578,10 @@
 Pays d'origine :  États-Unis
 Langues originales : anglais, amérindien
 Format : couleur (Technicolor) — 35 mm — 2,35:1 (Panavision) —  son Dolby
-Budget : 40 000 000 USD[2]
+Budget : 40 000 000 USD
 Genre : aventure
 Durée : 106 minutes
-Dates de sortie[1] :
+Dates de sortie :
  États-Unis : 7 février 1992
  France : 27 mai 1992</t>
         </is>
@@ -595,7 +611,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sean Connery   (VF : Jean-Claude Michel) : le Dr. Robert Campbell
 Lorraine Bracco (VF : Marie Vincent) : le Dr. Rae Crane
@@ -634,14 +652,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le script est écrit par Tom Schulman et acheté pour près de 2,5 millions de dollars, Sally Robinson et Tom Stoppard procèdent ensuite à des réécritures[3],[4].
-La distribution comprend 57 indiens indigènes de 9 tribus brésiliennes[5].
-Tournage
-Le tournage a lieu de mars à juin 1991. Il se déroule au Mexique, notamment à Catemaco dans l’État de Veracruz et dans la Sierra Madre de Chiapas[5], [6]. La cascade aperçue dans le film est celle d'Eyipantla.
-Divers
-Le look du personnage de Sean Connery s'inspire en partie de celui du compositeur Jerry Goldsmith, notamment connu pour sa queue-de-cheval. L'acteur l'avait rencontré à une soirée[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le script est écrit par Tom Schulman et acheté pour près de 2,5 millions de dollars, Sally Robinson et Tom Stoppard procèdent ensuite à des réécritures,.
+La distribution comprend 57 indiens indigènes de 9 tribus brésiliennes.
 </t>
         </is>
       </c>
@@ -667,10 +683,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu de mars à juin 1991. Il se déroule au Mexique, notamment à Catemaco dans l’État de Veracruz et dans la Sierra Madre de Chiapas, . La cascade aperçue dans le film est celle d'Eyipantla.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Medicine_Man</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Medicine_Man</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le look du personnage de Sean Connery s'inspire en partie de celui du compositeur Jerry Goldsmith, notamment connu pour sa queue-de-cheval. L'acteur l'avait rencontré à une soirée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Medicine_Man</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Medicine_Man</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La musique du film est composée par Jerry Goldsmith.
 Liste des titres
@@ -691,67 +783,71 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Medicine_Man</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Medicine_Man</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Medicine_Man</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Medicine_Man</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film reçoit des critiques plutôt mitigées. Sur l'agrégateur américain Rotten Tomatoes, il ne récolte que 19% d'opinions favorables pour 21 critiques et une note moyenne de 4,03⁄10[8].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques plutôt mitigées. Sur l'agrégateur américain Rotten Tomatoes, il ne récolte que 19% d'opinions favorables pour 21 critiques et une note moyenne de 4,03⁄10.
 Dans Les Cahiers du cinéma, Vincent Vatrican écrit toutefois : 
-« Il y a vers la fin du film ce plan qui recadre les visages de Sean Connery et Lorraine Bracco sur lesquels se réfléchissent comme dans un miroir les flammes de la forêt embrasée […], visages ravagés par une expression de terreur, sentiment aussi sûrement matérialisé et saisi qu'autrefois chez Jacques Tourneur. […] À lui seul, ce plan suffirait à racheter l'ensemble du film[9]. »
-Le film rapporte 45 500 797 $ aux États-Unis[2]. En France, il totalise 355 466 entrées[10].
+« Il y a vers la fin du film ce plan qui recadre les visages de Sean Connery et Lorraine Bracco sur lesquels se réfléchissent comme dans un miroir les flammes de la forêt embrasée […], visages ravagés par une expression de terreur, sentiment aussi sûrement matérialisé et saisi qu'autrefois chez Jacques Tourneur. […] À lui seul, ce plan suffirait à racheter l'ensemble du film. »
+Le film rapporte 45 500 797 $ aux États-Unis. En France, il totalise 355 466 entrées.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Medicine_Man</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Medicine_Man</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Medicine_Man</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Medicine_Man</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Razzie Awards 1993 : nomination pour la pire actrice pour Lorraine Bracco (également pour son rôle dans Traces de sang (1992)[11].</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Razzie Awards 1993 : nomination pour la pire actrice pour Lorraine Bracco (également pour son rôle dans Traces de sang (1992).</t>
         </is>
       </c>
     </row>
